--- a/data/trans_dic/P02E$nadie-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P02E$nadie-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>84,76; 97,21</t>
+          <t>84,62; 97,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,31; 93,02</t>
+          <t>78,85; 92,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>76,96; 93,54</t>
+          <t>77,02; 92,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>88,33; 97,96</t>
+          <t>87,76; 97,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>78,31; 90,86</t>
+          <t>78,42; 91,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>66,69; 83,7</t>
+          <t>66,69; 83,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>88,93; 96,53</t>
+          <t>89,08; 96,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>81,28; 90,85</t>
+          <t>80,72; 90,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>73,85; 86,14</t>
+          <t>74,35; 85,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,5; 98,52</t>
+          <t>86,09; 98,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,43; 96,71</t>
+          <t>86,68; 96,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,49; 94,8</t>
+          <t>81,41; 94,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>73,12; 86,77</t>
+          <t>73,06; 86,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,05; 96,04</t>
+          <t>89,01; 95,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,21; 95,46</t>
+          <t>85,46; 95,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>79,95; 89,14</t>
+          <t>79,77; 89,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>89,95; 95,58</t>
+          <t>89,82; 95,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86,73; 94,51</t>
+          <t>85,67; 93,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,27; 94,41</t>
+          <t>79,3; 94,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,5; 97,68</t>
+          <t>87,32; 97,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,18; 97,07</t>
+          <t>83,84; 97,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>88,51; 98,07</t>
+          <t>88,64; 98,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>83,02; 93,89</t>
+          <t>82,53; 93,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>77,46; 93,0</t>
+          <t>78,44; 93,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>86,53; 95,03</t>
+          <t>87,25; 95,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>86,82; 94,41</t>
+          <t>86,95; 94,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>83,53; 93,48</t>
+          <t>83,65; 93,92</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,3; 94,36</t>
+          <t>80,86; 94,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,14; 93,4</t>
+          <t>78,45; 92,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81,65; 96,66</t>
+          <t>80,32; 96,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82,86; 93,95</t>
+          <t>82,47; 94,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>78,06; 89,2</t>
+          <t>78,45; 89,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,23; 94,95</t>
+          <t>83,87; 95,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>84,23; 92,81</t>
+          <t>84,69; 93,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>80,78; 89,34</t>
+          <t>80,35; 89,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>86,0; 94,27</t>
+          <t>85,39; 94,46</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65,21; 94,33</t>
+          <t>66,13; 94,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>68,75; 92,5</t>
+          <t>69,24; 92,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,03; 97,74</t>
+          <t>84,93; 97,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76,08; 94,2</t>
+          <t>75,23; 95,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>79,96; 93,56</t>
+          <t>79,9; 93,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,55; 96,65</t>
+          <t>84,16; 96,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>76,55; 92,15</t>
+          <t>76,71; 92,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>79,58; 91,08</t>
+          <t>79,14; 91,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,76; 96,09</t>
+          <t>87,23; 96,2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>77,42; 96,51</t>
+          <t>76,16; 96,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>87,37; 97,83</t>
+          <t>87,81; 97,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>84,1; 98,26</t>
+          <t>84,34; 98,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>81,48; 96,66</t>
+          <t>81,59; 96,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>89,21; 98,15</t>
+          <t>88,83; 98,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>86,41; 98,38</t>
+          <t>85,85; 98,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>83,71; 94,81</t>
+          <t>84,19; 95,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>90,44; 97,07</t>
+          <t>90,33; 97,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>88,68; 97,63</t>
+          <t>88,56; 97,58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>81,91; 93,75</t>
+          <t>82,51; 93,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>87,44; 95,5</t>
+          <t>87,51; 95,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>85,0; 95,58</t>
+          <t>84,45; 95,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>96,35; 99,56</t>
+          <t>96,42; 99,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>91,33; 96,78</t>
+          <t>91,5; 96,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>79,58; 90,0</t>
+          <t>79,06; 89,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,94; 97,38</t>
+          <t>92,75; 97,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>91,31; 95,6</t>
+          <t>91,07; 95,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>83,31; 91,14</t>
+          <t>82,95; 90,81</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>81,88; 93,62</t>
+          <t>82,02; 94,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>89,71; 96,45</t>
+          <t>89,53; 96,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>88,36; 95,63</t>
+          <t>88,66; 95,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>86,63; 95,03</t>
+          <t>86,61; 95,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>92,68; 97,33</t>
+          <t>92,79; 97,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>83,65; 91,09</t>
+          <t>83,84; 91,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>86,7; 93,48</t>
+          <t>86,77; 93,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>92,95; 96,55</t>
+          <t>92,74; 96,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>86,93; 92,08</t>
+          <t>86,81; 92,18</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>87,12; 92,02</t>
+          <t>87,2; 92,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>89,47; 93,16</t>
+          <t>89,52; 93,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>89,18; 93,27</t>
+          <t>89,27; 93,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>89,79; 93,35</t>
+          <t>89,69; 93,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>90,09; 92,92</t>
+          <t>90,06; 93,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>85,51; 89,55</t>
+          <t>85,53; 89,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>89,36; 92,31</t>
+          <t>89,37; 92,3</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>90,32; 92,62</t>
+          <t>90,37; 92,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>87,63; 90,59</t>
+          <t>87,71; 90,44</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares que no tienen ayuda al cuidado por parte de una persona externa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>60075</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>77601</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>64051</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>97893</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>121032</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>74630</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>157967</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>198634</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>138680</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>54795; 62937</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>70107; 82458</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>56878; 68220</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>91503; 102123</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>110545; 128683</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>65854; 82517</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>150568; 163111</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>185559; 208568</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>128323; 148291</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>64996</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>120539</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>71523</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>111352</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>197557</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>122718</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>176348</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>318096</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>194240</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>59422; 67981</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>112174; 125257</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>65066; 75743</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>100794; 119576</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>188936; 203155</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>114586; 127902</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>165098; 185759</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>306907; 326312</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>183341; 200985</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>61622</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>87502</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>55296</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>99188</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>124676</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>69756</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>160809</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>212177</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>125052</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>55217; 65702</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>81624; 91310</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>50203; 58125</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>93244; 103179</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>115357; 130632</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>62954; 75254</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>152524; 166826</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>202829; 219793</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>117221; 131612</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>75935</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>96902</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>53360</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>104587</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>152380</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>107705</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>180522</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>249283</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>161065</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>69156; 80797</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>87233; 103182</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>47558; 57178</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>96282; 110075</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>141885; 161052</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>99404; 112770</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>171312; 188462</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>234668; 260267</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>151769; 167874</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>25943</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>45643</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>67911</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>46373</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>81416</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>77034</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>72316</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>127058</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>144946</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>20494; 29301</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>38036; 50685</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>61514; 70881</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>39841; 50683</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>73858; 86461</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>70644; 81155</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>64394; 77775</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>116627; 134619</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>136405; 150435</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>53609</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>77300</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>58558</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>62887</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>104123</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>66370</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>116496</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>181423</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>124927</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>45333; 57453</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>72049; 80228</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>52937; 61646</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>56510; 67161</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>97846; 108111</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>60043; 68834</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>108418; 122367</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>173610; 187157</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>117518; 129497</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>99041</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>197976</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>111641</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>219469</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>268385</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>173256</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>318510</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>466360</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>284898</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>92050; 104819</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>187917; 204642</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>103422; 116978</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>214480; 221471</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>259540; 274776</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>161079; 182814</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>309796; 324417</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>453867; 475754</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>270615; 296240</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>120660</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>197124</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>209311</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>180301</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>340545</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>282814</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>300960</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>537669</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>492125</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>110887; 127103</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>188100; 202504</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>200513; 216412</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>170616; 187182</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>331053; 347132</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>269758; 294147</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>288232; 311629</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>525722; 547367</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>475622; 505046</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1286</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1426</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1604</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>561879</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>900587</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>691650</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>922050</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1390114</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>974281</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1483929</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>2290701</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1665932</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>546033; 577409</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>881615; 916099</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>675488; 705880</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>902148; 938991</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1366090; 1411974</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>950221; 995994</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1458464; 1506307</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>2260750; 2318630</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1638097; 1689040</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>